--- a/latest_version/output/november_update/results_spb.xlsx
+++ b/latest_version/output/november_update/results_spb.xlsx
@@ -528,7 +528,7 @@
         <v>0.188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.823</v>
       </c>
       <c r="F2" t="n">
         <v>0.6899999999999999</v>
@@ -537,22 +537,22 @@
         <v>0.214</v>
       </c>
       <c r="H2" t="n">
-        <v>0.65</v>
+        <v>0.619</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.823</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.063</v>
+        <v>-0.037</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-0.063</v>
+        <v>-0.037</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="3">
@@ -570,34 +570,34 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.289</v>
+        <v>1.29</v>
       </c>
       <c r="F3" t="n">
-        <v>1.057</v>
+        <v>1.061</v>
       </c>
       <c r="G3" t="n">
-        <v>0.619</v>
+        <v>0.623</v>
       </c>
       <c r="H3" t="n">
-        <v>0.402</v>
+        <v>0.361</v>
       </c>
       <c r="I3" t="n">
-        <v>1.289</v>
+        <v>1.29</v>
       </c>
       <c r="J3" t="n">
-        <v>0.857</v>
+        <v>0.852</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>0.857</v>
+        <v>0.852</v>
       </c>
       <c r="O3" t="n">
-        <v>1.289</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
@@ -615,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.393</v>
+        <v>-3.384</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.114</v>
+        <v>-3.104</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.999</v>
+        <v>-2.99</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.362</v>
+        <v>-3.353</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.894</v>
+        <v>-3.871</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.999</v>
+        <v>-2.99</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.12</v>
+        <v>-2.114</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>-2.12</v>
+        <v>-2.114</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.12</v>
+        <v>-2.114</v>
       </c>
     </row>
     <row r="5">
@@ -660,34 +660,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.971</v>
+        <v>-0.99</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.605</v>
+        <v>-0.625</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.582</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9350000000000001</v>
+        <v>-0.955</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5639999999999999</v>
+        <v>-0.593</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.582</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.193</v>
+        <v>-1.196</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-1.193</v>
+        <v>-1.196</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.582</v>
       </c>
     </row>
     <row r="6">
@@ -705,34 +705,34 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.467</v>
+        <v>-0.639</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.129</v>
+        <v>-0.306</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.054</v>
+        <v>-0.226</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.429</v>
+        <v>-0.631</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.148</v>
+        <v>-0.466</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.054</v>
+        <v>-0.226</v>
       </c>
       <c r="J6" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -750,34 +750,34 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.477</v>
+        <v>-0.514</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.165</v>
+        <v>-0.202</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.078</v>
+        <v>-0.113</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.45</v>
+        <v>-0.487</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.055</v>
+        <v>-1.118</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.078</v>
+        <v>-0.113</v>
       </c>
       <c r="J7" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
       <c r="O7" t="n">
-        <v>0.468</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="8">
@@ -795,34 +795,34 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.184</v>
+        <v>-3.279</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.888</v>
+        <v>-2.983</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.768</v>
+        <v>-2.862</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.161</v>
+        <v>-3.255</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.191</v>
+        <v>-5.37</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.768</v>
+        <v>-2.862</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.493</v>
+        <v>-1.502</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>-1.493</v>
+        <v>-1.502</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.493</v>
+        <v>-1.502</v>
       </c>
     </row>
     <row r="9">
@@ -840,34 +840,34 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.371</v>
+        <v>-3.27</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.125</v>
+        <v>-3.023</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.964</v>
+        <v>-2.862</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.35</v>
+        <v>-3.248</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.561</v>
+        <v>-4.371</v>
       </c>
       <c r="I9" t="n">
-        <v>-2.964</v>
+        <v>-2.862</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.99</v>
+        <v>-1.971</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>-1.99</v>
+        <v>-1.971</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.99</v>
+        <v>-1.971</v>
       </c>
     </row>
     <row r="10">
@@ -885,22 +885,22 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.143</v>
+        <v>1.109</v>
       </c>
       <c r="E10" t="n">
-        <v>1.675</v>
+        <v>1.642</v>
       </c>
       <c r="F10" t="n">
-        <v>1.643</v>
+        <v>1.61</v>
       </c>
       <c r="G10" t="n">
-        <v>1.182</v>
+        <v>1.149</v>
       </c>
       <c r="H10" t="n">
-        <v>1.663</v>
+        <v>1.622</v>
       </c>
       <c r="I10" t="n">
-        <v>1.675</v>
+        <v>1.642</v>
       </c>
       <c r="J10" t="n">
         <v>-0.304</v>
@@ -932,38 +932,38 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.422</v>
+        <v>0.253</v>
       </c>
       <c r="E11" t="n">
-        <v>1.174</v>
+        <v>1.161</v>
       </c>
       <c r="F11" t="n">
         <v>0.748</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048</v>
+        <v>0.743</v>
       </c>
       <c r="H11" t="n">
-        <v>0.784</v>
+        <v>0.573</v>
       </c>
       <c r="I11" t="n">
-        <v>1.174</v>
+        <v>1.161</v>
       </c>
       <c r="J11" t="n">
-        <v>1.441</v>
+        <v>1.448</v>
       </c>
       <c r="K11" t="n">
-        <v>1.443</v>
+        <v>1.451</v>
       </c>
       <c r="L11" t="n">
-        <v>1.444</v>
+        <v>1.452</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.444</v>
+        <v>1.452</v>
       </c>
       <c r="O11" t="n">
-        <v>1.444</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="12">
@@ -981,34 +981,36 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172</v>
+        <v>0.206</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.584</v>
+        <v>0.619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.211</v>
+        <v>0.246</v>
       </c>
       <c r="H12" t="n">
-        <v>-10.557</v>
+        <v>0.307</v>
       </c>
       <c r="I12" t="n">
-        <v>0.584</v>
+        <v>0.619</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.481</v>
+        <v>-0.469</v>
       </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0.764</v>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-0.481</v>
+        <v>0.764</v>
       </c>
       <c r="O12" t="n">
-        <v>0.584</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="13">
@@ -1029,31 +1031,31 @@
         <v>1.059</v>
       </c>
       <c r="E13" t="n">
-        <v>1.797</v>
+        <v>1.774</v>
       </c>
       <c r="F13" t="n">
         <v>1.55</v>
       </c>
       <c r="G13" t="n">
-        <v>1.133</v>
+        <v>1.126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.92</v>
+        <v>0.662</v>
       </c>
       <c r="I13" t="n">
-        <v>1.797</v>
+        <v>1.774</v>
       </c>
       <c r="J13" t="n">
-        <v>1.469</v>
+        <v>1.386</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>1.469</v>
+        <v>1.386</v>
       </c>
       <c r="O13" t="n">
-        <v>1.797</v>
+        <v>1.774</v>
       </c>
     </row>
     <row r="14">
@@ -1071,34 +1073,34 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2.629</v>
+        <v>2.93</v>
       </c>
       <c r="E14" t="n">
-        <v>2.995</v>
+        <v>3.326</v>
       </c>
       <c r="F14" t="n">
-        <v>3.027</v>
+        <v>3.352</v>
       </c>
       <c r="G14" t="n">
-        <v>2.665</v>
+        <v>2.955</v>
       </c>
       <c r="H14" t="n">
-        <v>2.784</v>
+        <v>2.983</v>
       </c>
       <c r="I14" t="n">
-        <v>3.027</v>
+        <v>3.352</v>
       </c>
       <c r="J14" t="n">
-        <v>2.457</v>
+        <v>2.615</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.457</v>
+        <v>2.615</v>
       </c>
       <c r="O14" t="n">
-        <v>3.027</v>
+        <v>3.352</v>
       </c>
     </row>
     <row r="15">
@@ -1116,34 +1118,34 @@
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.754</v>
+        <v>-2.687</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.468</v>
+        <v>-2.4</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.336</v>
+        <v>-2.269</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.731</v>
+        <v>-2.664</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.105</v>
+        <v>-3.982</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.336</v>
+        <v>-2.269</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.738</v>
+        <v>-0.713</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>-0.738</v>
+        <v>-0.713</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.738</v>
+        <v>-0.713</v>
       </c>
     </row>
     <row r="16">
@@ -1161,36 +1163,36 @@
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2.203</v>
+        <v>2.206</v>
       </c>
       <c r="E16" t="n">
-        <v>3.24</v>
+        <v>3.244</v>
       </c>
       <c r="F16" t="n">
-        <v>2.69</v>
+        <v>2.693</v>
       </c>
       <c r="G16" t="n">
-        <v>2.43</v>
+        <v>2.435</v>
       </c>
       <c r="H16" t="n">
-        <v>2.232</v>
+        <v>2.169</v>
       </c>
       <c r="I16" t="n">
-        <v>3.24</v>
+        <v>3.244</v>
       </c>
       <c r="J16" t="n">
-        <v>2.845</v>
+        <v>2.855</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>3.506</v>
+        <v>3.384</v>
       </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>3.506</v>
+        <v>3.384</v>
       </c>
       <c r="O16" t="n">
-        <v>3.506</v>
+        <v>3.384</v>
       </c>
     </row>
     <row r="17">
@@ -1208,34 +1210,34 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.981</v>
+        <v>-0.951</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.638</v>
+        <v>-0.606</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.58</v>
+        <v>-0.549</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.947</v>
+        <v>-0.916</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.352</v>
+        <v>-0.298</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.352</v>
+        <v>-0.298</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.108</v>
+        <v>-1.103</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>-1.108</v>
+        <v>-1.103</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.352</v>
+        <v>-0.298</v>
       </c>
     </row>
     <row r="18">
@@ -1253,34 +1255,34 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.059</v>
+        <v>-1.182</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.754</v>
+        <v>-0.878</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.654</v>
+        <v>-0.775</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.03</v>
+        <v>-1.153</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.053</v>
+        <v>-2.287</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.654</v>
+        <v>-0.775</v>
       </c>
       <c r="J18" t="n">
-        <v>0.116</v>
+        <v>0.078</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>0.116</v>
+        <v>0.078</v>
       </c>
       <c r="O18" t="n">
-        <v>0.116</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="19">
@@ -1298,34 +1300,34 @@
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.681</v>
+        <v>-3.651</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.447</v>
+        <v>-3.417</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.269</v>
+        <v>-3.239</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.664</v>
+        <v>-3.633</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.529</v>
+        <v>-5.48</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.269</v>
+        <v>-3.239</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.838</v>
+        <v>-0.822</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>-0.838</v>
+        <v>-0.822</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.838</v>
+        <v>-0.822</v>
       </c>
     </row>
     <row r="20">
@@ -1343,28 +1345,28 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.279</v>
+        <v>-2.404</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.958</v>
+        <v>-2.084</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.86</v>
+        <v>-1.984</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.249</v>
+        <v>-2.375</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.037</v>
+        <v>-2.275</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.86</v>
+        <v>-1.984</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.197</v>
+        <v>-1.249</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.355</v>
+        <v>-1.421</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
@@ -1392,34 +1394,34 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.173</v>
+        <v>-1.254</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.878</v>
+        <v>-0.96</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.754</v>
+        <v>-0.835</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.151</v>
+        <v>-1.233</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.386</v>
+        <v>-2.538</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.754</v>
+        <v>-0.835</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.099</v>
+        <v>-0.117</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-0.099</v>
+        <v>-0.117</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.099</v>
+        <v>-0.117</v>
       </c>
     </row>
     <row r="22">
@@ -1437,36 +1439,36 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.238</v>
+        <v>0.098</v>
       </c>
       <c r="E22" t="n">
-        <v>0.62</v>
+        <v>0.477</v>
       </c>
       <c r="F22" t="n">
-        <v>0.647</v>
+        <v>0.507</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.139</v>
       </c>
       <c r="H22" t="n">
-        <v>0.837</v>
+        <v>0.68</v>
       </c>
       <c r="I22" t="n">
-        <v>0.837</v>
+        <v>0.68</v>
       </c>
       <c r="J22" t="n">
-        <v>1.079</v>
+        <v>0.973</v>
       </c>
       <c r="K22" t="n">
-        <v>1.08</v>
+        <v>0.974</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>1.079</v>
+        <v>0.973</v>
       </c>
       <c r="O22" t="n">
-        <v>1.081</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="23">
@@ -1484,34 +1486,34 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1.986</v>
+        <v>1.989</v>
       </c>
       <c r="E23" t="n">
-        <v>2.518</v>
+        <v>2.522</v>
       </c>
       <c r="F23" t="n">
-        <v>2.482</v>
+        <v>2.485</v>
       </c>
       <c r="G23" t="n">
-        <v>2.001</v>
+        <v>2.004</v>
       </c>
       <c r="H23" t="n">
-        <v>1.663</v>
+        <v>1.671</v>
       </c>
       <c r="I23" t="n">
-        <v>2.518</v>
+        <v>2.522</v>
       </c>
       <c r="J23" t="n">
-        <v>1.504</v>
+        <v>1.513</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.504</v>
+        <v>1.513</v>
       </c>
       <c r="O23" t="n">
-        <v>2.518</v>
+        <v>2.522</v>
       </c>
     </row>
     <row r="24">
@@ -1529,36 +1531,36 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.297</v>
+        <v>-0.147</v>
       </c>
       <c r="E24" t="n">
-        <v>0.064</v>
+        <v>0.217</v>
       </c>
       <c r="F24" t="n">
-        <v>0.101</v>
+        <v>0.251</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.261</v>
+        <v>-0.109</v>
       </c>
       <c r="H24" t="n">
-        <v>0.704</v>
+        <v>0.947</v>
       </c>
       <c r="I24" t="n">
-        <v>0.704</v>
+        <v>0.947</v>
       </c>
       <c r="J24" t="n">
-        <v>0.843</v>
+        <v>0.987</v>
       </c>
       <c r="K24" t="n">
-        <v>0.846</v>
+        <v>0.99</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>0.843</v>
+        <v>0.987</v>
       </c>
       <c r="O24" t="n">
-        <v>0.846</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25">
@@ -1576,34 +1578,34 @@
         <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.469</v>
+        <v>0.428</v>
       </c>
       <c r="E25" t="n">
-        <v>0.796</v>
+        <v>0.755</v>
       </c>
       <c r="F25" t="n">
-        <v>0.873</v>
+        <v>0.833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.458</v>
       </c>
       <c r="H25" t="n">
-        <v>0.797</v>
+        <v>0.721</v>
       </c>
       <c r="I25" t="n">
-        <v>0.873</v>
+        <v>0.833</v>
       </c>
       <c r="J25" t="n">
-        <v>0.426</v>
+        <v>0.415</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>0.426</v>
+        <v>0.415</v>
       </c>
       <c r="O25" t="n">
-        <v>0.873</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="26">
@@ -1621,36 +1623,36 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.025</v>
+        <v>-0.041</v>
       </c>
       <c r="E26" t="n">
-        <v>0.302</v>
+        <v>0.286</v>
       </c>
       <c r="F26" t="n">
-        <v>0.388</v>
+        <v>0.372</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001</v>
+        <v>-0.015</v>
       </c>
       <c r="H26" t="n">
-        <v>0.068</v>
+        <v>0.036</v>
       </c>
       <c r="I26" t="n">
-        <v>0.388</v>
+        <v>0.372</v>
       </c>
       <c r="J26" t="n">
-        <v>0.336</v>
+        <v>0.331</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.388</v>
+        <v>0.372</v>
       </c>
       <c r="N26" t="n">
-        <v>0.388</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>0.388</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="27">
@@ -1668,34 +1670,34 @@
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>2.168</v>
+        <v>2.162</v>
       </c>
       <c r="E27" t="n">
-        <v>2.829</v>
+        <v>2.803</v>
       </c>
       <c r="F27" t="n">
-        <v>2.664</v>
+        <v>2.659</v>
       </c>
       <c r="G27" t="n">
-        <v>2.209</v>
+        <v>2.199</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.786</v>
       </c>
       <c r="I27" t="n">
-        <v>2.829</v>
+        <v>2.803</v>
       </c>
       <c r="J27" t="n">
-        <v>2.137</v>
+        <v>2.063</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>2.137</v>
+        <v>2.063</v>
       </c>
       <c r="O27" t="n">
-        <v>2.829</v>
+        <v>2.803</v>
       </c>
     </row>
     <row r="28">
@@ -1713,34 +1715,34 @@
         <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.3</v>
+        <v>-3.314</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.013</v>
+        <v>-3.027</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.884</v>
+        <v>-2.897</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.292</v>
+        <v>-3.306</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.536</v>
+        <v>-4.558</v>
       </c>
       <c r="I28" t="n">
-        <v>-2.884</v>
+        <v>-2.897</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.233</v>
+        <v>-2.231</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>-2.233</v>
+        <v>-2.231</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.233</v>
+        <v>-2.231</v>
       </c>
     </row>
     <row r="29">
@@ -1761,31 +1763,31 @@
         <v>-0.102</v>
       </c>
       <c r="E29" t="n">
-        <v>0.513</v>
+        <v>0.52</v>
       </c>
       <c r="F29" t="n">
         <v>0.401</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.058</v>
+        <v>-0.057</v>
       </c>
       <c r="H29" t="n">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
       <c r="I29" t="n">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.258</v>
+        <v>-0.231</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>-0.258</v>
+        <v>-0.231</v>
       </c>
       <c r="O29" t="n">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="30">
@@ -1803,25 +1805,25 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.556</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.301</v>
+        <v>1.302</v>
       </c>
       <c r="F30" t="n">
-        <v>1.056</v>
+        <v>1.059</v>
       </c>
       <c r="G30" t="n">
-        <v>0.617</v>
+        <v>0.619</v>
       </c>
       <c r="H30" t="n">
-        <v>0.751</v>
+        <v>0.717</v>
       </c>
       <c r="I30" t="n">
-        <v>1.301</v>
+        <v>1.302</v>
       </c>
       <c r="J30" t="n">
-        <v>0.983</v>
+        <v>0.977</v>
       </c>
       <c r="K30" t="n">
         <v>1.298</v>
@@ -1829,7 +1831,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>0.983</v>
+        <v>0.977</v>
       </c>
       <c r="O30" t="n">
         <v>1.298</v>
@@ -1850,34 +1852,34 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.615</v>
+        <v>-2.602</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.361</v>
+        <v>-2.348</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.287</v>
+        <v>-2.274</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.588</v>
+        <v>-2.575</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.708</v>
+        <v>-2.695</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.287</v>
+        <v>-2.274</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.707</v>
+        <v>-1.7</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>-1.707</v>
+        <v>-1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.707</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="32">
@@ -1895,34 +1897,34 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.802</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.47</v>
+        <v>-0.485</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.457</v>
+        <v>-0.473</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.768</v>
+        <v>-0.783</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.279</v>
+        <v>-0.317</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.279</v>
+        <v>-0.317</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.152</v>
+        <v>-1.154</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>-1.152</v>
+        <v>-1.154</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.279</v>
+        <v>-0.317</v>
       </c>
     </row>
     <row r="33">
@@ -1940,34 +1942,34 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.879</v>
+        <v>-1.043</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.585</v>
+        <v>-0.748</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.53</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.87</v>
+        <v>-0.998</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.82</v>
+        <v>-1.08</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.53</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>0.067</v>
+        <v>0.002</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0.067</v>
+        <v>0.002</v>
       </c>
       <c r="O33" t="n">
-        <v>0.067</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="34">
@@ -1985,34 +1987,34 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.218</v>
+        <v>-0.247</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06</v>
+        <v>0.031</v>
       </c>
       <c r="F34" t="n">
-        <v>0.115</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.194</v>
+        <v>-0.223</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.702</v>
+        <v>-0.746</v>
       </c>
       <c r="I34" t="n">
-        <v>0.115</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>0.774</v>
+        <v>0.763</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>0.774</v>
+        <v>0.763</v>
       </c>
       <c r="O34" t="n">
-        <v>0.774</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="35">
@@ -2030,34 +2032,34 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.566</v>
+        <v>-3.637</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.297</v>
+        <v>-3.369</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.212</v>
+        <v>-3.282</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.542</v>
+        <v>-3.614</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.217</v>
+        <v>-5.345</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.212</v>
+        <v>-3.282</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.926</v>
+        <v>-1.933</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>-1.926</v>
+        <v>-1.933</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.926</v>
+        <v>-1.933</v>
       </c>
     </row>
     <row r="36">
@@ -2075,34 +2077,34 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.021</v>
+        <v>-2.933</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.799</v>
+        <v>-2.711</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.677</v>
+        <v>-2.59</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.004</v>
+        <v>-2.917</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.759</v>
+        <v>-3.597</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.677</v>
+        <v>-2.59</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.851</v>
+        <v>-1.833</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>-1.851</v>
+        <v>-1.833</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.851</v>
+        <v>-1.833</v>
       </c>
     </row>
     <row r="37">
@@ -2120,36 +2122,36 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.95</v>
+        <v>0.916</v>
       </c>
       <c r="E37" t="n">
-        <v>1.466</v>
+        <v>1.432</v>
       </c>
       <c r="F37" t="n">
-        <v>1.122</v>
+        <v>1.088</v>
       </c>
       <c r="G37" t="n">
-        <v>1.103</v>
+        <v>1.07</v>
       </c>
       <c r="H37" t="n">
-        <v>1.371</v>
+        <v>1.353</v>
       </c>
       <c r="I37" t="n">
-        <v>1.466</v>
+        <v>1.432</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.53</v>
+        <v>-0.529</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>4.258</v>
+        <v>4.206</v>
       </c>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="n">
-        <v>4.258</v>
+        <v>4.206</v>
       </c>
       <c r="O37" t="n">
-        <v>4.258</v>
+        <v>4.206</v>
       </c>
     </row>
     <row r="38">
@@ -2167,38 +2169,38 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="E38" t="n">
-        <v>1.233</v>
+        <v>1.221</v>
       </c>
       <c r="F38" t="n">
         <v>0.837</v>
       </c>
       <c r="G38" t="n">
-        <v>1.018</v>
+        <v>0.829</v>
       </c>
       <c r="H38" t="n">
-        <v>0.899</v>
+        <v>0.784</v>
       </c>
       <c r="I38" t="n">
-        <v>1.233</v>
+        <v>1.221</v>
       </c>
       <c r="J38" t="n">
-        <v>1.559</v>
+        <v>1.518</v>
       </c>
       <c r="K38" t="n">
-        <v>1.559</v>
+        <v>1.52</v>
       </c>
       <c r="L38" t="n">
-        <v>1.559</v>
+        <v>1.522</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.559</v>
+        <v>1.522</v>
       </c>
       <c r="O38" t="n">
-        <v>1.559</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="39">
@@ -2216,36 +2218,36 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.016</v>
+        <v>0.018</v>
       </c>
       <c r="E39" t="n">
-        <v>0.341</v>
+        <v>0.376</v>
       </c>
       <c r="F39" t="n">
-        <v>0.334</v>
+        <v>0.368</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>0.054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.329</v>
+        <v>0.385</v>
       </c>
       <c r="I39" t="n">
-        <v>0.341</v>
+        <v>0.385</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6820000000000001</v>
+        <v>-0.67</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.393</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>0.393</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>0.393</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2266,31 +2268,31 @@
         <v>1.382</v>
       </c>
       <c r="E40" t="n">
-        <v>2.08</v>
+        <v>2.057</v>
       </c>
       <c r="F40" t="n">
         <v>1.864</v>
       </c>
       <c r="G40" t="n">
-        <v>1.434</v>
+        <v>1.428</v>
       </c>
       <c r="H40" t="n">
-        <v>2.068</v>
+        <v>1.966</v>
       </c>
       <c r="I40" t="n">
-        <v>2.08</v>
+        <v>2.057</v>
       </c>
       <c r="J40" t="n">
-        <v>1.821</v>
+        <v>1.735</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="n">
-        <v>1.821</v>
+        <v>1.735</v>
       </c>
       <c r="O40" t="n">
-        <v>2.08</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="41">
@@ -2308,36 +2310,36 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.973</v>
+        <v>3.288</v>
       </c>
       <c r="E41" t="n">
-        <v>3.287</v>
+        <v>3.607</v>
       </c>
       <c r="F41" t="n">
-        <v>3.298</v>
+        <v>3.612</v>
       </c>
       <c r="G41" t="n">
-        <v>3.003</v>
+        <v>3.318</v>
       </c>
       <c r="H41" t="n">
-        <v>3.391</v>
+        <v>3.571</v>
       </c>
       <c r="I41" t="n">
-        <v>3.391</v>
+        <v>3.612</v>
       </c>
       <c r="J41" t="n">
-        <v>2.934</v>
+        <v>3.097</v>
       </c>
       <c r="K41" t="n">
-        <v>3.39</v>
+        <v>3.602</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="n">
-        <v>2.934</v>
+        <v>3.097</v>
       </c>
       <c r="O41" t="n">
-        <v>3.39</v>
+        <v>3.602</v>
       </c>
     </row>
     <row r="42">
@@ -2355,34 +2357,34 @@
         <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.82</v>
+        <v>-2.763</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.57</v>
+        <v>-2.512</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.465</v>
+        <v>-2.407</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.799</v>
+        <v>-2.741</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.133</v>
+        <v>-4.041</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.465</v>
+        <v>-2.407</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.732</v>
+        <v>-0.708</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>-0.732</v>
+        <v>-0.708</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.732</v>
+        <v>-0.708</v>
       </c>
     </row>
     <row r="43">
@@ -2400,36 +2402,36 @@
         <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>1.962</v>
+        <v>1.966</v>
       </c>
       <c r="E43" t="n">
-        <v>2.929</v>
+        <v>2.934</v>
       </c>
       <c r="F43" t="n">
-        <v>2.434</v>
+        <v>2.438</v>
       </c>
       <c r="G43" t="n">
-        <v>2.454</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
-        <v>2.535</v>
+        <v>2.533</v>
       </c>
       <c r="I43" t="n">
-        <v>2.929</v>
+        <v>2.934</v>
       </c>
       <c r="J43" t="n">
-        <v>2.735</v>
+        <v>2.747</v>
       </c>
       <c r="K43" t="n">
-        <v>2.914</v>
+        <v>2.919</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="n">
-        <v>2.735</v>
+        <v>2.747</v>
       </c>
       <c r="O43" t="n">
-        <v>2.914</v>
+        <v>2.919</v>
       </c>
     </row>
     <row r="44">
@@ -2447,34 +2449,34 @@
         <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.753</v>
+        <v>-0.724</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.442</v>
+        <v>-0.412</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.415</v>
+        <v>-0.386</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.722</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.049</v>
+        <v>-0.003</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.049</v>
+        <v>-0.003</v>
       </c>
       <c r="J44" t="n">
-        <v>-1.095</v>
+        <v>-1.089</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>-1.095</v>
+        <v>-1.089</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.049</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="45">
@@ -2492,34 +2494,34 @@
         <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.921</v>
+        <v>-1.029</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.648</v>
+        <v>-0.757</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.581</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.896</v>
+        <v>-1.004</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.598</v>
+        <v>-1.794</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.581</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.03</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>-0.03</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.03</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2537,34 +2539,34 @@
         <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.719</v>
+        <v>-3.684</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.515</v>
+        <v>-3.48</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.368</v>
+        <v>-3.333</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.705</v>
+        <v>-3.671</v>
       </c>
       <c r="H46" t="n">
-        <v>-5.334</v>
+        <v>-5.288</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.368</v>
+        <v>-3.333</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.909</v>
+        <v>-0.902</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>-0.909</v>
+        <v>-0.902</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.909</v>
+        <v>-0.902</v>
       </c>
     </row>
     <row r="47">
@@ -2582,36 +2584,36 @@
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.677</v>
+        <v>-1.783</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.391</v>
+        <v>-1.498</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.319</v>
+        <v>-1.424</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.652</v>
+        <v>-1.758</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.492</v>
+        <v>-1.667</v>
       </c>
       <c r="I47" t="n">
-        <v>-1.319</v>
+        <v>-1.424</v>
       </c>
       <c r="J47" t="n">
-        <v>-1.015</v>
+        <v>-1.045</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.07</v>
+        <v>-1.099</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>-1.015</v>
+        <v>-1.045</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.07</v>
+        <v>-1.099</v>
       </c>
     </row>
     <row r="48">
@@ -2629,34 +2631,34 @@
         <v>7</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.314</v>
+        <v>-1.385</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.048</v>
+        <v>-1.12</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.959</v>
+        <v>-1.03</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.293</v>
+        <v>-1.364</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.26</v>
+        <v>-2.379</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.959</v>
+        <v>-1.03</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.297</v>
+        <v>-0.315</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="n">
-        <v>-0.297</v>
+        <v>-0.315</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.297</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="49">
@@ -2674,36 +2676,36 @@
         <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.596</v>
+        <v>0.553</v>
       </c>
       <c r="E49" t="n">
-        <v>1.026</v>
+        <v>0.892</v>
       </c>
       <c r="F49" t="n">
-        <v>1.026</v>
+        <v>0.895</v>
       </c>
       <c r="G49" t="n">
-        <v>0.621</v>
+        <v>0.59</v>
       </c>
       <c r="H49" t="n">
-        <v>1.018</v>
+        <v>0.957</v>
       </c>
       <c r="I49" t="n">
-        <v>1.026</v>
+        <v>0.957</v>
       </c>
       <c r="J49" t="n">
-        <v>1.007</v>
+        <v>0.914</v>
       </c>
       <c r="K49" t="n">
-        <v>1.014</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="n">
-        <v>1.007</v>
+        <v>0.914</v>
       </c>
       <c r="O49" t="n">
-        <v>1.014</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2721,34 +2723,34 @@
         <v>7</v>
       </c>
       <c r="D50" t="n">
-        <v>1.742</v>
+        <v>1.745</v>
       </c>
       <c r="E50" t="n">
-        <v>2.235</v>
+        <v>2.239</v>
       </c>
       <c r="F50" t="n">
-        <v>2.235</v>
+        <v>2.238</v>
       </c>
       <c r="G50" t="n">
-        <v>1.757</v>
+        <v>1.76</v>
       </c>
       <c r="H50" t="n">
         <v>1.969</v>
       </c>
       <c r="I50" t="n">
-        <v>2.235</v>
+        <v>2.239</v>
       </c>
       <c r="J50" t="n">
-        <v>1.285</v>
+        <v>1.295</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="n">
-        <v>1.285</v>
+        <v>1.295</v>
       </c>
       <c r="O50" t="n">
-        <v>2.235</v>
+        <v>2.239</v>
       </c>
     </row>
     <row r="51">
@@ -2766,36 +2768,36 @@
         <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>0.596</v>
+        <v>0.74</v>
       </c>
       <c r="E51" t="n">
-        <v>0.928</v>
+        <v>1.074</v>
       </c>
       <c r="F51" t="n">
-        <v>0.929</v>
+        <v>1.072</v>
       </c>
       <c r="G51" t="n">
-        <v>0.63</v>
+        <v>0.775</v>
       </c>
       <c r="H51" t="n">
-        <v>1.703</v>
+        <v>1.934</v>
       </c>
       <c r="I51" t="n">
-        <v>1.703</v>
+        <v>1.934</v>
       </c>
       <c r="J51" t="n">
-        <v>1.045</v>
+        <v>1.16</v>
       </c>
       <c r="K51" t="n">
-        <v>1.715</v>
+        <v>1.907</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="n">
-        <v>1.045</v>
+        <v>1.16</v>
       </c>
       <c r="O51" t="n">
-        <v>1.715</v>
+        <v>1.907</v>
       </c>
     </row>
     <row r="52">
@@ -2813,36 +2815,36 @@
         <v>7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.86</v>
+        <v>0.824</v>
       </c>
       <c r="E52" t="n">
-        <v>1.154</v>
+        <v>1.117</v>
       </c>
       <c r="F52" t="n">
-        <v>1.2</v>
+        <v>1.164</v>
       </c>
       <c r="G52" t="n">
-        <v>0.886</v>
+        <v>0.849</v>
       </c>
       <c r="H52" t="n">
-        <v>1.086</v>
+        <v>1.041</v>
       </c>
       <c r="I52" t="n">
-        <v>1.2</v>
+        <v>1.164</v>
       </c>
       <c r="J52" t="n">
-        <v>0.571</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>1.2</v>
+        <v>1.164</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="n">
-        <v>0.571</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="53">
@@ -2860,36 +2862,36 @@
         <v>7</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04</v>
+        <v>0.023</v>
       </c>
       <c r="E53" t="n">
-        <v>0.33</v>
+        <v>0.313</v>
       </c>
       <c r="F53" t="n">
-        <v>0.389</v>
+        <v>0.373</v>
       </c>
       <c r="G53" t="n">
-        <v>0.064</v>
+        <v>0.047</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-0.028</v>
       </c>
       <c r="I53" t="n">
-        <v>0.389</v>
+        <v>0.373</v>
       </c>
       <c r="J53" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
       <c r="N53" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
       <c r="O53" t="n">
-        <v>0.394</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="54">
@@ -2907,34 +2909,34 @@
         <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>2.202</v>
+        <v>2.197</v>
       </c>
       <c r="E54" t="n">
-        <v>2.855</v>
+        <v>2.828</v>
       </c>
       <c r="F54" t="n">
-        <v>2.694</v>
+        <v>2.689</v>
       </c>
       <c r="G54" t="n">
-        <v>2.237</v>
+        <v>2.226</v>
       </c>
       <c r="H54" t="n">
-        <v>1.514</v>
+        <v>1.442</v>
       </c>
       <c r="I54" t="n">
-        <v>2.855</v>
+        <v>2.828</v>
       </c>
       <c r="J54" t="n">
-        <v>2.22</v>
+        <v>2.145</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="n">
-        <v>2.22</v>
+        <v>2.145</v>
       </c>
       <c r="O54" t="n">
-        <v>2.855</v>
+        <v>2.828</v>
       </c>
     </row>
     <row r="55">
@@ -2952,34 +2954,34 @@
         <v>7</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.256</v>
+        <v>-3.265</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.979</v>
+        <v>-2.988</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.898</v>
+        <v>-2.907</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.237</v>
+        <v>-3.246</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.097</v>
+        <v>-4.117</v>
       </c>
       <c r="I55" t="n">
-        <v>-2.898</v>
+        <v>-2.907</v>
       </c>
       <c r="J55" t="n">
-        <v>-2.358</v>
+        <v>-2.356</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="n">
-        <v>-2.358</v>
+        <v>-2.356</v>
       </c>
       <c r="O55" t="n">
-        <v>-2.358</v>
+        <v>-2.356</v>
       </c>
     </row>
   </sheetData>

--- a/latest_version/output/november_update/results_spb.xlsx
+++ b/latest_version/output/november_update/results_spb.xlsx
@@ -537,7 +537,7 @@
         <v>0.214</v>
       </c>
       <c r="H2" t="n">
-        <v>0.619</v>
+        <v>0.62</v>
       </c>
       <c r="I2" t="n">
         <v>0.823</v>
@@ -582,7 +582,7 @@
         <v>0.623</v>
       </c>
       <c r="H3" t="n">
-        <v>0.361</v>
+        <v>0.348</v>
       </c>
       <c r="I3" t="n">
         <v>1.29</v>
@@ -627,7 +627,7 @@
         <v>-3.353</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.871</v>
+        <v>-3.885</v>
       </c>
       <c r="I4" t="n">
         <v>-2.99</v>
@@ -672,7 +672,7 @@
         <v>-0.955</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.593</v>
+        <v>-0.591</v>
       </c>
       <c r="I5" t="n">
         <v>-0.582</v>
@@ -717,7 +717,7 @@
         <v>-0.631</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.466</v>
+        <v>-0.47</v>
       </c>
       <c r="I6" t="n">
         <v>-0.226</v>
@@ -762,7 +762,7 @@
         <v>-0.487</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.118</v>
+        <v>-1.117</v>
       </c>
       <c r="I7" t="n">
         <v>-0.113</v>
@@ -807,7 +807,7 @@
         <v>-3.255</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.37</v>
+        <v>-5.365</v>
       </c>
       <c r="I8" t="n">
         <v>-2.862</v>
@@ -852,7 +852,7 @@
         <v>-3.248</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.371</v>
+        <v>-4.363</v>
       </c>
       <c r="I9" t="n">
         <v>-2.862</v>
@@ -897,7 +897,7 @@
         <v>1.149</v>
       </c>
       <c r="H10" t="n">
-        <v>1.622</v>
+        <v>1.628</v>
       </c>
       <c r="I10" t="n">
         <v>1.642</v>
@@ -944,7 +944,7 @@
         <v>0.743</v>
       </c>
       <c r="H11" t="n">
-        <v>0.573</v>
+        <v>0.57</v>
       </c>
       <c r="I11" t="n">
         <v>1.161</v>
@@ -953,17 +953,15 @@
         <v>1.448</v>
       </c>
       <c r="K11" t="n">
-        <v>1.451</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.452</v>
-      </c>
+        <v>1.449</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.452</v>
+        <v>1.448</v>
       </c>
       <c r="O11" t="n">
-        <v>1.452</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="12">
@@ -993,7 +991,7 @@
         <v>0.246</v>
       </c>
       <c r="H12" t="n">
-        <v>0.307</v>
+        <v>0.302</v>
       </c>
       <c r="I12" t="n">
         <v>0.619</v>
@@ -1040,7 +1038,7 @@
         <v>1.126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.662</v>
+        <v>0.636</v>
       </c>
       <c r="I13" t="n">
         <v>1.774</v>
@@ -1085,7 +1083,7 @@
         <v>2.955</v>
       </c>
       <c r="H14" t="n">
-        <v>2.983</v>
+        <v>2.988</v>
       </c>
       <c r="I14" t="n">
         <v>3.352</v>
@@ -1130,7 +1128,7 @@
         <v>-2.664</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.982</v>
+        <v>-3.991</v>
       </c>
       <c r="I15" t="n">
         <v>-2.269</v>
@@ -1175,7 +1173,7 @@
         <v>2.435</v>
       </c>
       <c r="H16" t="n">
-        <v>2.169</v>
+        <v>2.203</v>
       </c>
       <c r="I16" t="n">
         <v>3.244</v>
@@ -1222,10 +1220,10 @@
         <v>-0.916</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.298</v>
+        <v>-0.281</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.298</v>
+        <v>-0.281</v>
       </c>
       <c r="J17" t="n">
         <v>-1.103</v>
@@ -1237,7 +1235,7 @@
         <v>-1.103</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.298</v>
+        <v>-0.281</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1265,7 @@
         <v>-1.153</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.287</v>
+        <v>-2.274</v>
       </c>
       <c r="I18" t="n">
         <v>-0.775</v>
@@ -1312,7 +1310,7 @@
         <v>-3.633</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.48</v>
+        <v>-5.472</v>
       </c>
       <c r="I19" t="n">
         <v>-3.239</v>
@@ -1357,7 +1355,7 @@
         <v>-2.375</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.275</v>
+        <v>-2.272</v>
       </c>
       <c r="I20" t="n">
         <v>-1.984</v>
@@ -1406,7 +1404,7 @@
         <v>-1.233</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.538</v>
+        <v>-2.531</v>
       </c>
       <c r="I21" t="n">
         <v>-0.835</v>
@@ -1451,16 +1449,16 @@
         <v>0.139</v>
       </c>
       <c r="H22" t="n">
-        <v>0.68</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.68</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="J22" t="n">
         <v>0.973</v>
       </c>
       <c r="K22" t="n">
-        <v>0.974</v>
+        <v>0.973</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1468,7 +1466,7 @@
         <v>0.973</v>
       </c>
       <c r="O22" t="n">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="23">
@@ -1543,16 +1541,16 @@
         <v>-0.109</v>
       </c>
       <c r="H24" t="n">
-        <v>0.947</v>
+        <v>0.969</v>
       </c>
       <c r="I24" t="n">
-        <v>0.947</v>
+        <v>0.969</v>
       </c>
       <c r="J24" t="n">
         <v>0.987</v>
       </c>
       <c r="K24" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1560,7 +1558,7 @@
         <v>0.987</v>
       </c>
       <c r="O24" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="25">
@@ -1590,7 +1588,7 @@
         <v>0.458</v>
       </c>
       <c r="H25" t="n">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
       <c r="I25" t="n">
         <v>0.833</v>
@@ -1635,7 +1633,7 @@
         <v>-0.015</v>
       </c>
       <c r="H26" t="n">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="I26" t="n">
         <v>0.372</v>
@@ -1682,7 +1680,7 @@
         <v>2.199</v>
       </c>
       <c r="H27" t="n">
-        <v>0.786</v>
+        <v>0.796</v>
       </c>
       <c r="I27" t="n">
         <v>2.803</v>
@@ -1727,7 +1725,7 @@
         <v>-3.306</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.558</v>
+        <v>-4.56</v>
       </c>
       <c r="I28" t="n">
         <v>-2.897</v>
@@ -1772,22 +1770,24 @@
         <v>-0.057</v>
       </c>
       <c r="H29" t="n">
-        <v>0.701</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>0.701</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="J29" t="n">
         <v>-0.231</v>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0.706</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
         <v>-0.231</v>
       </c>
       <c r="O29" t="n">
-        <v>0.701</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="30">
@@ -1817,7 +1817,7 @@
         <v>0.619</v>
       </c>
       <c r="H30" t="n">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="I30" t="n">
         <v>1.302</v>
@@ -1864,7 +1864,7 @@
         <v>-2.575</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.695</v>
+        <v>-2.681</v>
       </c>
       <c r="I31" t="n">
         <v>-2.274</v>
@@ -1909,10 +1909,10 @@
         <v>-0.783</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.317</v>
+        <v>-0.308</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.317</v>
+        <v>-0.308</v>
       </c>
       <c r="J32" t="n">
         <v>-1.154</v>
@@ -1924,7 +1924,7 @@
         <v>-1.154</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.317</v>
+        <v>-0.308</v>
       </c>
     </row>
     <row r="33">
@@ -1954,7 +1954,7 @@
         <v>-0.998</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.08</v>
+        <v>-1.06</v>
       </c>
       <c r="I33" t="n">
         <v>-0.6929999999999999</v>
@@ -1999,7 +1999,7 @@
         <v>-0.223</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.746</v>
+        <v>-0.755</v>
       </c>
       <c r="I34" t="n">
         <v>0.08699999999999999</v>
@@ -2044,7 +2044,7 @@
         <v>-3.614</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.345</v>
+        <v>-5.335</v>
       </c>
       <c r="I35" t="n">
         <v>-3.282</v>
@@ -2089,7 +2089,7 @@
         <v>-2.917</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.597</v>
+        <v>-3.611</v>
       </c>
       <c r="I36" t="n">
         <v>-2.59</v>
@@ -2134,7 +2134,7 @@
         <v>1.07</v>
       </c>
       <c r="H37" t="n">
-        <v>1.353</v>
+        <v>1.354</v>
       </c>
       <c r="I37" t="n">
         <v>1.432</v>
@@ -2181,7 +2181,7 @@
         <v>0.829</v>
       </c>
       <c r="H38" t="n">
-        <v>0.784</v>
+        <v>0.793</v>
       </c>
       <c r="I38" t="n">
         <v>1.221</v>
@@ -2190,17 +2190,15 @@
         <v>1.518</v>
       </c>
       <c r="K38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.522</v>
-      </c>
+        <v>1.518</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1.522</v>
+        <v>1.518</v>
       </c>
       <c r="O38" t="n">
-        <v>1.523</v>
+        <v>1.518</v>
       </c>
     </row>
     <row r="39">
@@ -2230,10 +2228,10 @@
         <v>0.054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="I39" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="J39" t="n">
         <v>-0.67</v>
@@ -2277,7 +2275,7 @@
         <v>1.428</v>
       </c>
       <c r="H40" t="n">
-        <v>1.966</v>
+        <v>1.968</v>
       </c>
       <c r="I40" t="n">
         <v>2.057</v>
@@ -2322,7 +2320,7 @@
         <v>3.318</v>
       </c>
       <c r="H41" t="n">
-        <v>3.571</v>
+        <v>3.561</v>
       </c>
       <c r="I41" t="n">
         <v>3.612</v>
@@ -2369,7 +2367,7 @@
         <v>-2.741</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.041</v>
+        <v>-4.03</v>
       </c>
       <c r="I42" t="n">
         <v>-2.407</v>
@@ -2414,7 +2412,7 @@
         <v>2.45</v>
       </c>
       <c r="H43" t="n">
-        <v>2.533</v>
+        <v>2.513</v>
       </c>
       <c r="I43" t="n">
         <v>2.934</v>
@@ -2461,10 +2459,10 @@
         <v>-0.6919999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="J44" t="n">
         <v>-1.089</v>
@@ -2476,7 +2474,7 @@
         <v>-1.089</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="45">
@@ -2506,7 +2504,7 @@
         <v>-1.004</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.794</v>
+        <v>-1.791</v>
       </c>
       <c r="I45" t="n">
         <v>-0.6879999999999999</v>
@@ -2551,7 +2549,7 @@
         <v>-3.671</v>
       </c>
       <c r="H46" t="n">
-        <v>-5.288</v>
+        <v>-5.282</v>
       </c>
       <c r="I46" t="n">
         <v>-3.333</v>
@@ -2596,7 +2594,7 @@
         <v>-1.758</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.667</v>
+        <v>-1.662</v>
       </c>
       <c r="I47" t="n">
         <v>-1.424</v>
@@ -2643,7 +2641,7 @@
         <v>-1.364</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.379</v>
+        <v>-2.376</v>
       </c>
       <c r="I48" t="n">
         <v>-1.03</v>
@@ -2688,16 +2686,16 @@
         <v>0.59</v>
       </c>
       <c r="H49" t="n">
-        <v>0.957</v>
+        <v>0.948</v>
       </c>
       <c r="I49" t="n">
-        <v>0.957</v>
+        <v>0.948</v>
       </c>
       <c r="J49" t="n">
         <v>0.914</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.964</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2705,7 +2703,7 @@
         <v>0.914</v>
       </c>
       <c r="O49" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="50">
@@ -2735,7 +2733,7 @@
         <v>1.76</v>
       </c>
       <c r="H50" t="n">
-        <v>1.969</v>
+        <v>1.941</v>
       </c>
       <c r="I50" t="n">
         <v>2.239</v>
@@ -2780,16 +2778,16 @@
         <v>0.775</v>
       </c>
       <c r="H51" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="I51" t="n">
-        <v>1.934</v>
+        <v>1.901</v>
       </c>
       <c r="J51" t="n">
         <v>1.16</v>
       </c>
       <c r="K51" t="n">
-        <v>1.907</v>
+        <v>1.909</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -2797,7 +2795,7 @@
         <v>1.16</v>
       </c>
       <c r="O51" t="n">
-        <v>1.907</v>
+        <v>1.909</v>
       </c>
     </row>
     <row r="52">
@@ -2827,7 +2825,7 @@
         <v>0.849</v>
       </c>
       <c r="H52" t="n">
-        <v>1.041</v>
+        <v>1.056</v>
       </c>
       <c r="I52" t="n">
         <v>1.164</v>
@@ -2874,7 +2872,7 @@
         <v>0.047</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.028</v>
+        <v>-0.027</v>
       </c>
       <c r="I53" t="n">
         <v>0.373</v>
@@ -2921,7 +2919,7 @@
         <v>2.226</v>
       </c>
       <c r="H54" t="n">
-        <v>1.442</v>
+        <v>1.44</v>
       </c>
       <c r="I54" t="n">
         <v>2.828</v>
@@ -2966,7 +2964,7 @@
         <v>-3.246</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.117</v>
+        <v>-4.12</v>
       </c>
       <c r="I55" t="n">
         <v>-2.907</v>
